--- a/Frontend/src/assets/template File/PCOF - Other Info.xlsx
+++ b/Frontend/src/assets/template File/PCOF - Other Info.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Disha\Downloads\Borrowing Base FIGMA working FIles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96769DE8-AEAE-4A69-8BD5-04A6D35C6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4D9A55-897E-427A-8A1C-EAE66A0ED622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Availability Borrower" sheetId="19" r:id="rId1"/>
     <sheet name="Principle Obligations" sheetId="21" r:id="rId2"/>
     <sheet name="Subscription BB" sheetId="22" r:id="rId3"/>
-    <sheet name="PL_BB_Results_Security" sheetId="10" r:id="rId4"/>
-    <sheet name="Pricing" sheetId="13" r:id="rId5"/>
-    <sheet name="Advance Rates" sheetId="14" r:id="rId6"/>
-    <sheet name="Portfolio LeverageBorrowingBase" sheetId="15" r:id="rId7"/>
-    <sheet name="Concentration Limits" sheetId="16" r:id="rId8"/>
-    <sheet name="Inputs Industries" sheetId="17" r:id="rId9"/>
-    <sheet name="Other Metrics" sheetId="18" r:id="rId10"/>
-    <sheet name="MV and BV 4.30" sheetId="9" state="hidden" r:id="rId11"/>
-    <sheet name="Obligors' Net Capital" sheetId="12" r:id="rId12"/>
+    <sheet name="Pricing" sheetId="13" r:id="rId4"/>
+    <sheet name="Advance Rates" sheetId="14" r:id="rId5"/>
+    <sheet name="Portfolio LeverageBorrowingBase" sheetId="15" r:id="rId6"/>
+    <sheet name="Concentration Limits" sheetId="16" r:id="rId7"/>
+    <sheet name="MV and BV 4.30" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="Other Metrics" sheetId="18" r:id="rId9"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
@@ -36,9 +36,6 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
-    <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Principal">'[1]Summary - All Debt'!#REF!</definedName>
@@ -672,7 +669,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="142">
   <si>
     <t>A</t>
   </si>
@@ -812,45 +809,6 @@
     <t>Excluded</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>First Lien</t>
-  </si>
-  <si>
-    <t>Last Out</t>
-  </si>
-  <si>
-    <t>Second Lien</t>
-  </si>
-  <si>
-    <t>High Yield</t>
-  </si>
-  <si>
-    <t>Mezzanine</t>
-  </si>
-  <si>
-    <t>Cov-Lite</t>
-  </si>
-  <si>
-    <t>PIK</t>
-  </si>
-  <si>
-    <t>DIP</t>
-  </si>
-  <si>
-    <t>Warehouse First Lien</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Hard Code</t>
-  </si>
-  <si>
     <t>Pricing</t>
   </si>
   <si>
@@ -893,13 +851,43 @@
     <t>Quoted</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>Cash Equivalent</t>
   </si>
   <si>
     <t>LT US Debt</t>
   </si>
   <si>
+    <t>First Lien</t>
+  </si>
+  <si>
+    <t>Warehouse First Lien</t>
+  </si>
+  <si>
+    <t>Last Out</t>
+  </si>
+  <si>
+    <t>Second Lien</t>
+  </si>
+  <si>
+    <t>High Yield</t>
+  </si>
+  <si>
+    <t>Mezzanine</t>
+  </si>
+  <si>
+    <t>Cov-Lite</t>
+  </si>
+  <si>
+    <t>PIK</t>
+  </si>
+  <si>
     <t>Preferred Stock</t>
+  </si>
+  <si>
+    <t>Equity</t>
   </si>
   <si>
     <t>Investors</t>
@@ -918,207 +906,6 @@
   </si>
   <si>
     <t>HNW Investors Aggregate</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
-  <si>
-    <t>Aerospace &amp; Defense</t>
-  </si>
-  <si>
-    <t>Auto Sector</t>
-  </si>
-  <si>
-    <t>Beverage, Food &amp; Tobacco</t>
-  </si>
-  <si>
-    <t>Broadcasting &amp; Entertainment</t>
-  </si>
-  <si>
-    <t>Building Materials</t>
-  </si>
-  <si>
-    <t>Buildings &amp; Real Estate</t>
-  </si>
-  <si>
-    <t>Business Services</t>
-  </si>
-  <si>
-    <t>Cable Television</t>
-  </si>
-  <si>
-    <t>Cargo Transport</t>
-  </si>
-  <si>
-    <t>Chemicals, Plastics &amp; Rubber</t>
-  </si>
-  <si>
-    <t>Communications</t>
-  </si>
-  <si>
-    <t>Containers, Packaging &amp; Glass</t>
-  </si>
-  <si>
-    <t>Consumer Products</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Diversified / Conglomerate Manufacturing</t>
-  </si>
-  <si>
-    <t>Diversified / Conglomerate Services</t>
-  </si>
-  <si>
-    <t>Diversified Natural Resources, Precious Metals &amp; Minerals</t>
-  </si>
-  <si>
-    <t>Ecological</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Energy / Utilities</t>
-  </si>
-  <si>
-    <t>Environmental Services</t>
-  </si>
-  <si>
-    <t>Farming &amp; Agriculture</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Grocery</t>
-  </si>
-  <si>
-    <t>Healthcare, Education &amp; Childcare</t>
-  </si>
-  <si>
-    <t>Home &amp; Office Furnishings, Housewares &amp; Durable Consumer Products</t>
-  </si>
-  <si>
-    <t>Homebuilding</t>
-  </si>
-  <si>
-    <t>Hotel, Motels, Inns &amp; Gaming</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Leisure, Amusement, Motion Pictures, Entertainment</t>
-  </si>
-  <si>
-    <t>Lodging, Leisure, Resorts</t>
-  </si>
-  <si>
-    <t>Machinery (Non-Agriculture, Non-Construction &amp; Non-Electronic</t>
-  </si>
-  <si>
-    <t>Manufacturing / Basic Industry</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Mining, Steel, Iron &amp; Non-Precious Metals</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas</t>
-  </si>
-  <si>
-    <t>Other Media</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
-    <t>Personal, Food &amp; Miscellaneous Services</t>
-  </si>
-  <si>
-    <t>Personal &amp; Non-Durable Consumer Products (Manufacturing Only)</t>
-  </si>
-  <si>
-    <t>Personal Transportation</t>
-  </si>
-  <si>
-    <t>Printing &amp; Publishing</t>
-  </si>
-  <si>
-    <t>Restaurants</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Retail Store</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>Textiles &amp; Leather</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Hard code</t>
-  </si>
-  <si>
-    <t>Other Metrics</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>First Lien Leverage Cut-Off Point</t>
-  </si>
-  <si>
-    <t>Warehouse First Lien Leverage Cut-Off</t>
-  </si>
-  <si>
-    <t>Last Out Attachment Point</t>
-  </si>
-  <si>
-    <t>1 out of 2 Test</t>
-  </si>
-  <si>
-    <t>Trailing 12-Month EBITDA</t>
-  </si>
-  <si>
-    <t>Trailing 24-Month EBITDA</t>
-  </si>
-  <si>
-    <t>Total Leverage</t>
-  </si>
-  <si>
-    <t>LTV</t>
-  </si>
-  <si>
-    <t>Concentration Test Threshold 1</t>
-  </si>
-  <si>
-    <t>Concentration Test Threshold 2</t>
-  </si>
-  <si>
-    <t>Threshold 1 Advance Rate</t>
-  </si>
-  <si>
-    <t>Threshold 2 Advance Rate</t>
   </si>
   <si>
     <t>MVMinusBV</t>
@@ -1268,31 +1055,46 @@
     <t>UROLOGY PARTNERS CO., L.P.</t>
   </si>
   <si>
-    <t>Obligors' Net Capital</t>
+    <t>Other Metrics</t>
   </si>
   <si>
-    <t>Values</t>
+    <t>values</t>
   </si>
   <si>
-    <t>Equity Paid in Capital</t>
+    <t>First Lien Leverage Cut-Off Point</t>
   </si>
   <si>
-    <t>Distributions</t>
+    <t>Warehouse First Lien Leverage Cut-Off</t>
   </si>
   <si>
-    <t>Retained Earnings</t>
+    <t>Last Out Attachment Point</t>
   </si>
   <si>
-    <t>(a) Partners' Capital</t>
+    <t>1 out of 2 Test</t>
   </si>
   <si>
-    <t>(b) Uncalled Capital Commitments (excl. Defaulting Investors)</t>
+    <t>Trailing 12-Month EBITDA</t>
   </si>
   <si>
-    <t>Obligors' Net Capital ((a) + (b))</t>
+    <t>Trailing 24-Month EBITDA</t>
   </si>
   <si>
-    <t>Debt / Equity</t>
+    <t>Total Leverage</t>
+  </si>
+  <si>
+    <t>LTV</t>
+  </si>
+  <si>
+    <t>Concentration Test Threshold 1</t>
+  </si>
+  <si>
+    <t>Concentration Test Threshold 2</t>
+  </si>
+  <si>
+    <t>Threshold 1 Advance Rate</t>
+  </si>
+  <si>
+    <t>Threshold 2 Advance Rate</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1213,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1428,18 +1230,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6200"/>
-        <bgColor rgb="FFFF6200"/>
       </patternFill>
     </fill>
     <fill>
@@ -1691,7 +1481,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1700,48 +1490,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1756,104 +1542,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2555,13 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
@@ -2571,74 +2362,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>45230</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>44914</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>60000000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>60000000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="56"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2658,128 +2449,939 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B13"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A64CF9C-2F15-4BC6-991C-6BD263061325}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="32">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="32">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="22">
+    <row r="1" spans="1:5">
+      <c r="A1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="68">
+        <v>60000000</v>
+      </c>
+      <c r="D2" s="69">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34">
+        <f>C2*D2</f>
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="23">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25">
-      <c r="A9" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="62">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25">
-      <c r="A10" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="62">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25">
-      <c r="A11" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="62">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25">
-      <c r="A12" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="62">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25">
-      <c r="A13" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="62">
-        <v>0.02</v>
-      </c>
+      <c r="B3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="70">
+        <v>0</v>
+      </c>
+      <c r="D3" s="70">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <f t="shared" ref="E3" si="0">C3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBC228-6345-4726-B100-E5AECE567F7F}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.15">
+      <c r="A1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="43">
+        <v>15000000</v>
+      </c>
+      <c r="F2" s="31">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="43">
+        <v>20000000</v>
+      </c>
+      <c r="F3" s="31">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="43">
+        <v>5000000</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="43">
+        <v>5000000</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="43">
+        <v>3000000</v>
+      </c>
+      <c r="F6" s="31">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="43">
+        <v>4000000</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="43">
+        <v>4000000</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="45">
+        <v>5000000</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="47">
+        <v>5000000</v>
+      </c>
+      <c r="F22" s="47">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="47">
+        <v>0</v>
+      </c>
+      <c r="F23" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="47">
+        <v>1500000</v>
+      </c>
+      <c r="F24" s="47">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="47">
+        <v>8000000</v>
+      </c>
+      <c r="F25" s="47">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="47">
+        <v>500000</v>
+      </c>
+      <c r="F26" s="47">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="47">
+        <v>250000</v>
+      </c>
+      <c r="F27" s="47">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="9" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="57">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="62"/>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="57">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="59">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="63">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="64">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25">
+      <c r="A8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="65">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="61">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="61">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="61">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="3" width="9" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="59">
+        <v>0.65</v>
+      </c>
+      <c r="C4" s="59">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="A5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="59">
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="C6" s="59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="A10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
+      <c r="A11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="59">
+        <v>0.35</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
+      <c r="A14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="59">
+        <v>0</v>
+      </c>
+      <c r="C14" s="59">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="67">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="67">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -2805,50 +3407,50 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -2866,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1">
         <v>1373629</v>
@@ -2924,13 +3526,13 @@
         <v>19021.6697080294</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>1373633</v>
@@ -2982,13 +3584,13 @@
         <v>-52183.138199999899</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1">
         <v>1373636</v>
@@ -3040,13 +3642,13 @@
         <v>-18987.341850000001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1">
         <v>1373639</v>
@@ -3098,13 +3700,13 @@
         <v>-4439.2976562678796</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
         <v>1373850</v>
@@ -3156,13 +3758,13 @@
         <v>-3316.2060791556701</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1">
         <v>1373864</v>
@@ -3196,7 +3798,7 @@
         <v>2992481.2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -3214,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1">
         <v>1373741</v>
@@ -3272,13 +3874,13 @@
         <v>-9348.3023001095298</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1">
         <v>1373748</v>
@@ -3330,13 +3932,13 @@
         <v>-5357.1428999999898</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1">
         <v>1373744</v>
@@ -3388,13 +3990,13 @@
         <v>612.53230250021397</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1">
         <v>1373763</v>
@@ -3428,7 +4030,7 @@
         <v>3491116.75</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3446,13 +4048,13 @@
         <v>-37673.165137614596</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1">
         <v>1373662</v>
@@ -3504,13 +4106,13 @@
         <v>-65624.999999999898</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1">
         <v>1373665</v>
@@ -3562,13 +4164,13 @@
         <v>-19687.5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1">
         <v>1373668</v>
@@ -3620,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1">
         <v>1373658</v>
@@ -3678,13 +4280,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1">
         <v>1373783</v>
@@ -3736,13 +4338,13 @@
         <v>-2202.0404063528399</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1">
         <v>1373791</v>
@@ -3794,13 +4396,13 @@
         <v>-14571.5517285717</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1">
         <v>1373787</v>
@@ -3852,13 +4454,13 @@
         <v>-6857.2007428566703</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1">
         <v>1373794</v>
@@ -3910,13 +4512,13 @@
         <v>15315.1760477521</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1">
         <v>1373643</v>
@@ -3968,13 +4570,13 @@
         <v>-5657.5193065693602</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1">
         <v>1373653</v>
@@ -4008,7 +4610,7 @@
         <v>5000000</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -4026,13 +4628,13 @@
         <v>-52631.886894737101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1">
         <v>1373649</v>
@@ -4066,7 +4668,7 @@
         <v>2631578.9500000002</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -4084,13 +4686,13 @@
         <v>-21052.754757894902</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1">
         <v>1373646</v>
@@ -4124,7 +4726,7 @@
         <v>1052631.58</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -4142,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1">
         <v>1373884</v>
@@ -4200,13 +4802,13 @@
         <v>-1400.9698826747499</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1">
         <v>1373737</v>
@@ -4240,7 +4842,7 @@
         <v>2000000</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -4258,13 +4860,13 @@
         <v>-43470.728191316201</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1">
         <v>1373730</v>
@@ -4316,13 +4918,13 @@
         <v>-17388.2913565126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1">
         <v>1373733</v>
@@ -4374,13 +4976,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1">
         <v>1373727</v>
@@ -4432,13 +5034,13 @@
         <v>-889639.64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1">
         <v>1373878</v>
@@ -4488,13 +5090,13 @@
         <v>-236486.49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="E30" s="1">
         <v>1373881</v>
@@ -4544,13 +5146,13 @@
         <v>-3532933.0791383702</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1">
         <v>1373875</v>
@@ -4600,13 +5202,13 @@
         <v>-18864.434874667601</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1">
         <v>1373717</v>
@@ -4640,7 +5242,7 @@
         <v>1662500.0035890001</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -4658,13 +5260,13 @@
         <v>-33222.082189000197</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E33" s="1">
         <v>1373719</v>
@@ -4698,7 +5300,7 @@
         <v>1111111.1100000001</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -4716,13 +5318,13 @@
         <v>2777.7500222220001</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1">
         <v>1373723</v>
@@ -31823,1387 +32425,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B11"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="54.75" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2">
-        <v>22875000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4">
-        <v>1174447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5">
-        <v>24049447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7">
-        <v>53375000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9">
-        <v>77424447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11">
-        <v>2.4948598610188419</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A64CF9C-2F15-4BC6-991C-6BD263061325}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A2:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="18">
-        <v>60000000</v>
-      </c>
-      <c r="D2" s="36">
-        <v>1</v>
-      </c>
-      <c r="E2" s="37">
-        <f>C2*D2</f>
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0</v>
-      </c>
-      <c r="E3" s="37">
-        <f t="shared" ref="E3" si="0">C3*D3</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBC228-6345-4726-B100-E5AECE567F7F}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="31.15">
-      <c r="A1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="46">
-        <v>15000000</v>
-      </c>
-      <c r="F2" s="33">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="46">
-        <v>20000000</v>
-      </c>
-      <c r="F3" s="33">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="46">
-        <v>5000000</v>
-      </c>
-      <c r="F4" s="33">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="46">
-        <v>5000000</v>
-      </c>
-      <c r="F5" s="33">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="46">
-        <v>3000000</v>
-      </c>
-      <c r="F6" s="33">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="46">
-        <v>4000000</v>
-      </c>
-      <c r="F7" s="33">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="46">
-        <v>4000000</v>
-      </c>
-      <c r="F8" s="33">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="48">
-        <v>5000000</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="50">
-        <v>5000000</v>
-      </c>
-      <c r="F22" s="50">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="50">
-        <v>0</v>
-      </c>
-      <c r="F23" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="50">
-        <v>1500000</v>
-      </c>
-      <c r="F24" s="50">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="50">
-        <v>8000000</v>
-      </c>
-      <c r="F25" s="50">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="50">
-        <v>500000</v>
-      </c>
-      <c r="F26" s="50">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="50">
-        <v>250000</v>
-      </c>
-      <c r="F27" s="50">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="9" style="63"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="60">
-        <v>2.2499999999999999E-2</v>
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="30">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="66"/>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="60">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25">
-      <c r="A5" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="62">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
-      <c r="A6" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="67">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25">
-      <c r="A7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="68">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25">
-      <c r="A8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="69">
+      <c r="A3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="30">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25">
+      <c r="A9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25">
+      <c r="A10" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="59">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25">
+      <c r="A12" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="59">
         <v>0.5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="63" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="64">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="64">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="64">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="3" width="9" style="63"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="60">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="62">
-        <v>0.65</v>
-      </c>
-      <c r="C4" s="62">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="62">
-        <v>0.65</v>
-      </c>
-      <c r="C5" s="62">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="62">
-        <v>0.7</v>
-      </c>
-      <c r="C6" s="62">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="62">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C7" s="62">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="62">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="62">
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="C9" s="62">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="62">
-        <v>0.4</v>
-      </c>
-      <c r="C10" s="62">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="62">
-        <v>0.4</v>
-      </c>
-      <c r="C11" s="62">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="62">
-        <v>0.35</v>
-      </c>
-      <c r="C12" s="62">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="62">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="62">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25">
-      <c r="A14" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="62">
-        <v>0</v>
-      </c>
-      <c r="C14" s="62">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="63" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="70">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="71">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="71">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:A61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="46.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>134</v>
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="A13" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="59">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/Frontend/src/assets/template File/PCOF - Other Info.xlsx
+++ b/Frontend/src/assets/template File/PCOF - Other Info.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Disha\Downloads\Borrowing Base FIGMA working FIles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4D9A55-897E-427A-8A1C-EAE66A0ED622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Availability Borrower" sheetId="19" r:id="rId1"/>
@@ -22,9 +16,9 @@
     <sheet name="Concentration Limits" sheetId="16" r:id="rId7"/>
     <sheet name="MV and BV 4.30" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="Other Metrics" sheetId="18" r:id="rId9"/>
+    <sheet name="Obligors' Net Capital" sheetId="23" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -577,7 +571,8 @@
     <definedName name="lookup_errorcodes">[11]SelectLists!$O$4:$P$13</definedName>
     <definedName name="LookupArrayAfter">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -597,79 +592,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ing me"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAyLBFivA
-Troxel, Richard    (2023-05-30 21:05:02)
-Placeholder; to be updated</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ing me"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAyLBFivE
-Troxel, Richard    (2023-05-30 21:05:02)
-Including Performing DIP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="ing me"/>
-            <charset val="1"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAyLBFiu8
-Troxel, Richard    (2023-05-30 21:05:02)
-Including Unsecured High Yield</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="151">
   <si>
     <t>A</t>
   </si>
@@ -1096,19 +1020,46 @@
   <si>
     <t>Threshold 2 Advance Rate</t>
   </si>
+  <si>
+    <t>Obligors' Net Capital</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Equity Paid in Capital</t>
+  </si>
+  <si>
+    <t>Distributions</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>(a) Partners' Capital</t>
+  </si>
+  <si>
+    <t>(b) Uncalled Capital Commitments (excl. Defaulting Investors)</t>
+  </si>
+  <si>
+    <t>Obligors' Net Capital ((a) + (b))</t>
+  </si>
+  <si>
+    <t>Debt / Equity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.00\x;\(0.00\x\);\-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\);\-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00\x;\(0.00\x\);\-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\);\-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,13 +1092,6 @@
       <color theme="1"/>
       <name val="ing me"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ing me"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1211,6 +1155,19 @@
       <sz val="8"/>
       <color rgb="FF1E5680"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1478,176 +1435,178 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1668,7 +1627,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary Slides All Debt"/>
@@ -1711,7 +1670,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Borrowing Request"/>
@@ -1744,7 +1703,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -1792,21 +1751,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Inputs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Borrowing Request"/>
@@ -1837,7 +1783,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Borrowing Base Certificate"/>
@@ -1862,7 +1808,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Floaters"/>
@@ -1881,7 +1827,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Table of Contents"/>
@@ -1972,7 +1918,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Compliance"/>
@@ -2015,7 +1961,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="All Debt"/>
@@ -2074,7 +2020,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Year"/>
@@ -2101,7 +2047,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cash flow Calculation"/>
@@ -2348,14 +2294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
@@ -2369,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2385,7 +2331,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2339,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
@@ -2401,7 +2347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="53" t="s">
         <v>8</v>
       </c>
@@ -2409,7 +2355,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="54" t="s">
         <v>9</v>
       </c>
@@ -2433,9 +2379,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
@@ -2449,21 +2394,104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="75">
+        <v>22875000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25">
+      <c r="A3" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="75">
+        <v>1174447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="75">
+        <v>24049447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="75">
+        <v>53375000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="75">
+        <v>77424447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25">
+      <c r="A8" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="75">
+        <v>2.4948598610000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A64CF9C-2F15-4BC6-991C-6BD263061325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
@@ -2480,7 +2508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -2530,14 +2558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBC228-6345-4726-B100-E5AECE567F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -2547,7 +2575,7 @@
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.15">
+    <row r="1" spans="1:6" ht="33.75">
       <c r="A1" s="37" t="s">
         <v>18</v>
       </c>
@@ -2567,7 +2595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
@@ -2583,7 +2611,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="39" t="s">
         <v>26</v>
       </c>
@@ -2599,7 +2627,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="39" t="s">
         <v>27</v>
       </c>
@@ -2615,7 +2643,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="39" t="s">
         <v>28</v>
       </c>
@@ -2631,7 +2659,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="39" t="s">
         <v>29</v>
       </c>
@@ -2647,7 +2675,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="39" t="s">
         <v>30</v>
       </c>
@@ -2663,7 +2691,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="39" t="s">
         <v>31</v>
       </c>
@@ -2679,7 +2707,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="39" t="s">
         <v>32</v>
       </c>
@@ -2695,7 +2723,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="39"/>
       <c r="B10" s="40"/>
       <c r="C10" s="44"/>
@@ -2705,7 +2733,7 @@
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
       <c r="C11" s="44"/>
@@ -2715,7 +2743,7 @@
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="44"/>
@@ -2725,7 +2753,7 @@
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="44"/>
@@ -2735,7 +2763,7 @@
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="44"/>
@@ -2745,7 +2773,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="39"/>
       <c r="B15" s="40"/>
       <c r="C15" s="44"/>
@@ -2755,7 +2783,7 @@
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="44"/>
@@ -2765,7 +2793,7 @@
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.25">
       <c r="A17" s="39"/>
       <c r="B17" s="40"/>
       <c r="C17" s="44"/>
@@ -2775,7 +2803,7 @@
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25">
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="44"/>
@@ -2785,7 +2813,7 @@
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.25">
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
       <c r="C19" s="44"/>
@@ -2795,7 +2823,7 @@
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.25">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
       <c r="C20" s="44"/>
@@ -2805,7 +2833,7 @@
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25">
       <c r="A21" s="39"/>
       <c r="B21" s="40"/>
       <c r="C21" s="44"/>
@@ -2815,7 +2843,7 @@
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.25">
       <c r="A22" s="47" t="s">
         <v>33</v>
       </c>
@@ -2831,7 +2859,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.25">
       <c r="A23" s="47" t="s">
         <v>35</v>
       </c>
@@ -2847,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.25">
       <c r="A24" s="47" t="s">
         <v>36</v>
       </c>
@@ -2863,7 +2891,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.25">
       <c r="A25" s="47" t="s">
         <v>37</v>
       </c>
@@ -2879,7 +2907,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.25">
       <c r="A26" s="47" t="s">
         <v>38</v>
       </c>
@@ -2895,7 +2923,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.25">
       <c r="A27" s="47" t="s">
         <v>39</v>
       </c>
@@ -2911,7 +2939,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25">
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -2923,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
@@ -2935,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.25">
       <c r="A30" s="47" t="s">
         <v>40</v>
       </c>
@@ -2949,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.25">
       <c r="A31" s="47" t="s">
         <v>41</v>
       </c>
@@ -2963,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.25">
       <c r="A32" s="47" t="s">
         <v>42</v>
       </c>
@@ -2977,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.25">
       <c r="A33" s="47" t="s">
         <v>43</v>
       </c>
@@ -2991,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.25">
       <c r="A34" s="47" t="s">
         <v>44</v>
       </c>
@@ -3005,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -3021,20 +3049,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="72" t="s">
         <v>46</v>
       </c>
@@ -3050,7 +3078,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="23"/>
       <c r="B3" s="62"/>
     </row>
@@ -3100,20 +3128,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
@@ -3121,7 +3149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
@@ -3129,7 +3157,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="28" t="s">
         <v>56</v>
       </c>
@@ -3137,7 +3165,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="29" t="s">
         <v>45</v>
       </c>
@@ -3151,20 +3179,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="3" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="6" t="s">
         <v>57</v>
       </c>
@@ -3320,25 +3348,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
@@ -3349,7 +3376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="29" t="s">
         <v>76</v>
       </c>
@@ -3358,7 +3385,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="29" t="s">
         <v>77</v>
       </c>
@@ -3367,7 +3394,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="29" t="s">
         <v>78</v>
       </c>
@@ -3382,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32426,20 +32453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="4" t="s">
         <v>128</v>
       </c>
@@ -32447,7 +32474,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="14" t="s">
         <v>130</v>
       </c>
@@ -32455,7 +32482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>131</v>
       </c>
@@ -32463,7 +32490,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="14" t="s">
         <v>132</v>
       </c>
@@ -32471,13 +32498,13 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="11" t="s">
         <v>134</v>
       </c>
@@ -32485,7 +32512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="11" t="s">
         <v>135</v>
       </c>
@@ -32493,7 +32520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>136</v>
       </c>
@@ -32559,6 +32586,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2D6C0B0299502459BE057F60D45F7A2" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f50657443db3cca893bf2a77a6b82c8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ecf2865c-a0c0-4830-9c97-c878b24eefc5" xmlns:ns3="0c3f3349-3fde-44b2-91dd-1461469ae59c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffe86a2076484ea9f4ac21488ba3d86b" ns2:_="" ns3:_="">
     <xsd:import namespace="ecf2865c-a0c0-4830-9c97-c878b24eefc5"/>
@@ -32799,23 +32835,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF8A72F-D295-4574-82B8-441B0398744E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF8A72F-D295-4574-82B8-441B0398744E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0c3f3349-3fde-44b2-91dd-1461469ae59c"/>
+    <ds:schemaRef ds:uri="ecf2865c-a0c0-4830-9c97-c878b24eefc5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B1DE2C-B754-4698-8D14-ED482BBE5558}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A217E5FC-6AA4-4D58-87BB-3869865F3C89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A217E5FC-6AA4-4D58-87BB-3869865F3C89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B1DE2C-B754-4698-8D14-ED482BBE5558}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ecf2865c-a0c0-4830-9c97-c878b24eefc5"/>
+    <ds:schemaRef ds:uri="0c3f3349-3fde-44b2-91dd-1461469ae59c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>